--- a/data/financial_statements/sofp/BKR.xlsx
+++ b/data/financial_statements/sofp/BKR.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -131,9 +251,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -186,12 +303,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -488,3902 +602,3980 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN37"/>
+  <dimension ref="A1:AO37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
-        <v>3700000000</v>
+        <v>2488000000</v>
       </c>
       <c r="C2">
-        <v>3893000000</v>
+        <v>2851000000</v>
       </c>
       <c r="D2">
-        <v>4241000000</v>
+        <v>2928000000</v>
       </c>
       <c r="E2">
-        <v>4894000000</v>
+        <v>3191000000</v>
       </c>
       <c r="F2">
-        <v>4329000000</v>
+        <v>3853000000</v>
       </c>
       <c r="G2">
+        <v>3926000000</v>
+      </c>
+      <c r="H2">
         <v>3913000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>4382000000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>4132000000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>4061000000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>4132000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>3010000000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>3249000000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>2808000000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>3138000000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>3073000000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>3723000000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>4765000000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>4879000000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>5631000000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>7030000000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>4777000000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>4133000000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>4222000000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>981000000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>3736000000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>3910000000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>2192000000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>2324000000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>2043000000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>1973000000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>1606000000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>1740000000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>1209000000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>1163000000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>1200000000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>1399000000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>1368000000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>1123000000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>1101000000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
+        <v>5958000000</v>
+      </c>
+      <c r="C3">
         <v>5583000000</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>5572000000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>5738000000</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>5651000000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>5326000000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>5407000000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>5263000000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>5622000000</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>5647000000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>5636000000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>6148000000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>6416000000</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>6165000000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>6310000000</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>6319000000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>5969000000</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>5809000000</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>6038000000</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>5865000000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>6015000000</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>5194000000</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>2307000000</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>2162000000</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>2563000000</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>2207000000</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>2262000000</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>2800000000</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>3217000000</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>3518000000</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>3684000000</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>4455000000</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>5418000000</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>5539000000</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>5361000000</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>5267000000</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>5138000000</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>5343000000</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>5197000000</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>5096000000</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
+        <v>4587000000</v>
+      </c>
+      <c r="C4">
         <v>4111000000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>4052000000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>4151000000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>3979000000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>4110000000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>4212000000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>4181000000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>4421000000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>4469000000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>4616000000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>4534000000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>4608000000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>4739000000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>4807000000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>4871000000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>4620000000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>4681000000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>4675000000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>4696000000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>4507000000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>5309000000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>1976000000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>1907000000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>3224000000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>1966000000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>1992000000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>2789000000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>2917000000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>3262000000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>3535000000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>3843000000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>4074000000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>4150000000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>4075000000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>3995000000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>3884000000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>3960000000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>3838000000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>3880000000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
-        <v>941000000</v>
+        <v>1559000000</v>
       </c>
       <c r="C5">
-        <v>682000000</v>
+        <v>1790000000</v>
       </c>
       <c r="D5">
-        <v>577000000</v>
+        <v>1647000000</v>
       </c>
       <c r="E5">
-        <v>541000000</v>
+        <v>1627000000</v>
       </c>
       <c r="F5">
-        <v>1122000000</v>
+        <v>1582000000</v>
       </c>
       <c r="G5">
+        <v>1525000000</v>
+      </c>
+      <c r="H5">
         <v>1980000000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>1960000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>2280000000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>1031000000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>1118000000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>961000000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>949000000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>1057000000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>730000000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>649000000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>659000000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>863000000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>850000000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>862000000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>872000000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>1301000000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>675000000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>673000000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>633000000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>934000000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>1039000000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>782000000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>810000000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>431000000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>326000000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>370000000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>395000000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>487000000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>556000000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>440000000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>494000000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>463000000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>473000000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>492000000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
+        <v>14592000000</v>
+      </c>
+      <c r="C6">
         <v>14335000000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>14199000000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>14707000000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>15065000000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>14887000000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>15512000000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>15786000000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>16455000000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>15208000000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>15502000000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>14653000000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>15222000000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>14769000000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>14985000000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>14912000000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>14971000000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>16118000000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>16442000000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>17054000000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>18424000000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>16581000000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>9091000000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>8964000000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>7401000000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>9002000000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>9399000000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>8771000000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>9268000000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>9586000000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>9938000000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>10705000000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>12045000000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>11811000000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>11547000000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>11266000000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>11295000000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>11507000000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>10930000000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>10835000000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
+        <v>4538000000</v>
+      </c>
+      <c r="C7">
         <v>4381000000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>4531000000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>4804000000</v>
       </c>
-      <c r="E7">
-        <v>5699000000</v>
-      </c>
       <c r="F7">
+        <v>4877000000</v>
+      </c>
+      <c r="G7">
         <v>4982000000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>5086000000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>5163000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>5358000000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>5536000000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>5710000000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>5997000000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>6240000000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>6141000000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>6130000000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>6218000000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>6228000000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>6226000000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>6335000000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>6593000000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>6959000000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>6255000000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>4047000000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>4128000000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>2325000000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>4874000000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>5229000000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>6323000000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>6693000000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>8026000000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>8366000000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>8559000000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>9063000000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>9081000000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>9087000000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>9055000000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>9076000000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>8964000000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>8855000000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>8753000000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8">
         <v>1000000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>1000000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>75000000</v>
-      </c>
-      <c r="F8">
-        <v>582000000</v>
       </c>
       <c r="G8">
         <v>582000000</v>
       </c>
       <c r="H8">
+        <v>582000000</v>
+      </c>
+      <c r="I8">
         <v>566000000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
+        <v>10110000000</v>
+      </c>
+      <c r="C9">
         <v>9415000000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>9790000000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>10107000000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>10090000000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>10166000000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>10254000000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>10197000000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>10374000000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>10300000000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>10284000000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>10454000000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>26071000000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>26085000000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>26215000000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>26425000000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>26436000000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>26621000000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>26731000000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>26638000000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>26285000000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>27221000000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>4370000000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>4384000000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>9455000000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>4623000000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>4672000000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>6623000000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>6653000000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>6804000000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>6840000000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>6855000000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>6893000000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>6931000000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>6835000000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>6859000000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>6849000000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>6882000000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>6888000000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>6919000000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10">
         <v>701000000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>773000000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>761000000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>735000000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>974000000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>991000000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>943000000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>953000000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>1305000000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>1174000000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>1315000000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>954000000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>943000000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>898000000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>997000000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>1072000000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>1212000000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>1187000000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>1287000000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>715000000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>324000000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
-        <v>4332000000</v>
+        <v>4941000000</v>
       </c>
       <c r="C11">
+        <v>4333000000</v>
+      </c>
+      <c r="D11">
         <v>4460000000</v>
       </c>
-      <c r="D11">
-        <v>4614000000</v>
-      </c>
       <c r="E11">
-        <v>3644000000</v>
+        <v>4615000000</v>
       </c>
       <c r="F11">
-        <v>4181000000</v>
+        <v>4541000000</v>
       </c>
       <c r="G11">
+        <v>4763000000</v>
+      </c>
+      <c r="H11">
         <v>4826000000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>4747000000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>4867000000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>4990000000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>4853000000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>4810000000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>4882000000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>4611000000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>4648000000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>4577000000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>3732000000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>3423000000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>3395000000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>3649000000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>4117000000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>4429000000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>1167000000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>1200000000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>2540000000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>992000000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>1019000000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>1219000000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>1466000000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>1000000000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>874000000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>807000000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>826000000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>819000000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>808000000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>716000000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>714000000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>721000000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>677000000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>647000000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
+        <v>19589000000</v>
+      </c>
+      <c r="C12">
         <v>18830000000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>19554000000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>20287000000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>20243000000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>20885000000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>21157000000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>21050000000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>21552000000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>22131000000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>22021000000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>22576000000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>38147000000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>37780000000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>37891000000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>38217000000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>37468000000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>37482000000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>37648000000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>38167000000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>38076000000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>38229000000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>9584000000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>9712000000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>14320000000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>10489000000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>10920000000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>14165000000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>14812000000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>15830000000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>16080000000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>16221000000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>16782000000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>16831000000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>16730000000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>16630000000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>16639000000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>16567000000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>16420000000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>16319000000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
+        <v>34181000000</v>
+      </c>
+      <c r="C13">
         <v>33165000000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>33753000000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>34994000000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>35308000000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>35772000000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>36669000000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>36836000000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>38007000000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>37339000000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>37523000000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>37229000000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>53369000000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>52549000000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>52876000000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>53129000000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>52439000000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>53600000000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>54090000000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>55221000000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>56500000000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>54810000000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>18675000000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>18676000000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>21721000000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>19491000000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>20319000000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>22936000000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>24080000000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>25416000000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>26018000000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>26926000000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>28827000000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>28642000000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>28277000000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>27896000000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>27934000000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>28074000000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>27350000000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>27154000000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
+        <v>4298000000</v>
+      </c>
+      <c r="C14">
         <v>3800000000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>3764000000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>3755000000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>3745000000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>3514000000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>3593000000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>3468000000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>3532000000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>3482000000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>3628000000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>3991000000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>4268000000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>3870000000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>3966000000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>3918000000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>4025000000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>3686000000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>3574000000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>3439000000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>3377000000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>3203000000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>1094000000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>1088000000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>1898000000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>951000000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>1023000000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>1153000000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>1409000000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>1480000000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>1785000000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>2149000000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>2807000000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>2745000000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>2536000000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>2486000000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>2574000000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>2474000000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>2211000000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>2024000000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="W15">
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X15">
         <v>456000000</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>420000000</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>466000000</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>460000000</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>507000000</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>690000000</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>795000000</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>634000000</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>753000000</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>782000000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>777000000</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>569000000</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>662000000</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>778000000</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>717000000</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>568000000</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>613000000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B16">
+        <v>677000000</v>
+      </c>
+      <c r="C16">
         <v>43000000</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>34000000</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>35000000</v>
       </c>
-      <c r="E16">
-        <v>236000000</v>
-      </c>
       <c r="F16">
+        <v>40000000</v>
+      </c>
+      <c r="G16">
         <v>56000000</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>51000000</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>887000000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>889000000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>935000000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>934000000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>210000000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>321000000</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>694000000</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>892000000</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>906000000</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>942000000</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>1000000000</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>1067000000</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>1176000000</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>2037000000</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>1866000000</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>331000000</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>134000000</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>239000000</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>127000000</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>139000000</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>162000000</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>151000000</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>156000000</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>139000000</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>149000000</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>220000000</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>519000000</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>657000000</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>625000000</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>499000000</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>737000000</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>1068000000</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>1248000000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="P17">
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q17">
         <v>1923000000</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>1775000000</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>75000000</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>131000000</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>175000000</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>176000000</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>55000000</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>50000000</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>71000000</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>92000000</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>265000000</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>368000000</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>306000000</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>300000000</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>213000000</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>227000000</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>194000000</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>193000000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B18">
+        <v>6100000000</v>
+      </c>
+      <c r="C18">
         <v>5622000000</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>5577000000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>5352000000</v>
       </c>
-      <c r="E18">
-        <v>5147000000</v>
-      </c>
       <c r="F18">
+        <v>5343000000</v>
+      </c>
+      <c r="G18">
         <v>5784000000</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>6161000000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>5603000000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>5806000000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>6222000000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>6005000000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>5940000000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>5425000000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>4768000000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>4483000000</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>2305000000</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>4053000000</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>3771000000</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>3992000000</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>3710000000</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>2038000000</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>3663000000</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>2797000000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
+        <v>11075000000</v>
+      </c>
+      <c r="C19">
         <v>9465000000</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>9375000000</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>9142000000</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>9128000000</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>9354000000</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>9805000000</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>9958000000</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>10227000000</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>10639000000</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>10567000000</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>10141000000</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>10014000000</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>9332000000</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>9341000000</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>9052000000</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>9020000000</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>8457000000</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>8633000000</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>8325000000</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>9227000000</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>8732000000</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>2466000000</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>2130000000</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>4934000000</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>2224000000</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>2338000000</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>2462000000</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>2775000000</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>2918000000</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>3114000000</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>3733000000</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>4637000000</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>4962000000</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>4595000000</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>4526000000</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>4578000000</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>4699000000</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>4508000000</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>4496000000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
+        <v>5980000000</v>
+      </c>
+      <c r="C20">
         <v>6612000000</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>6625000000</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>6650000000</v>
       </c>
-      <c r="E20">
-        <v>7311000000</v>
-      </c>
       <c r="F20">
+        <v>6687000000</v>
+      </c>
+      <c r="G20">
         <v>6708000000</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>6722000000</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>6733000000</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>6744000000</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>6754000000</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>6766000000</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>6285000000</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>6301000000</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>6313000000</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>6256000000</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>6270000000</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>6285000000</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>6293000000</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>6319000000</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>6296000000</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>6312000000</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>3039000000</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>2678000000</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>2884000000</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>38000000</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>2895000000</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>2887000000</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>3885000000</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>3890000000</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>3896000000</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>3904000000</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>3906000000</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>3913000000</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>3894000000</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>3900000000</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>3878000000</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>3882000000</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>3838000000</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>3841000000</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>3844000000</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
+        <v>960000000</v>
+      </c>
+      <c r="C21">
         <v>1020000000</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>996000000</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>1063000000</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>1110000000</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>1132000000</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>1163000000</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>1197000000</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>1217000000</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>1147000000</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>1059000000</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>1025000000</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>1079000000</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>977000000</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>997000000</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>1033000000</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>1018000000</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>1082000000</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>1100000000</v>
-      </c>
-      <c r="T21">
-        <v>1172000000</v>
       </c>
       <c r="U21">
         <v>1172000000</v>
       </c>
       <c r="V21">
+        <v>1172000000</v>
+      </c>
+      <c r="W21">
         <v>1262000000</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>647000000</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>626000000</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>519000000</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>631000000</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>651000000</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>650000000</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>646000000</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>624000000</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>631000000</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>623000000</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>629000000</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>584000000</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>577000000</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>582000000</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>583000000</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>595000000</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>565000000</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>547000000</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>-507000000</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="C22">
-        <v>-582000000</v>
+        <v>194000000</v>
       </c>
       <c r="D22">
-        <v>-569000000</v>
+        <v>191000000</v>
       </c>
       <c r="E22">
-        <v>-608000000</v>
+        <v>192000000</v>
       </c>
       <c r="F22">
-        <v>-817000000</v>
+        <v>127000000</v>
       </c>
       <c r="G22">
+        <v>157000000</v>
+      </c>
+      <c r="H22">
         <v>149000000</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>166000000</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>186000000</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>172000000</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>177000000</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>314000000</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>51000000</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>74000000</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>75000000</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>89000000</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>143000000</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>181000000</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>148000000</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>424000000</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>490000000</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>633000000</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>344000000</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>334000000</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>880000000</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>382000000</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>352000000</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>375000000</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>252000000</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>324000000</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>410000000</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>584000000</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>740000000</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>742000000</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>773000000</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>728000000</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>821000000</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>797000000</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>674000000</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>721000000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
-        <v>2527000000</v>
+        <v>1641000000</v>
       </c>
       <c r="C23">
-        <v>2476000000</v>
+        <v>1507000000</v>
       </c>
       <c r="D23">
-        <v>2563000000</v>
+        <v>1480000000</v>
       </c>
       <c r="E23">
-        <v>1996000000</v>
+        <v>1500000000</v>
       </c>
       <c r="F23">
-        <v>2517000000</v>
+        <v>1510000000</v>
       </c>
       <c r="G23">
+        <v>1385000000</v>
+      </c>
+      <c r="H23">
         <v>1430000000</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>1358000000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>1391000000</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>1378000000</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>1389000000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>1479000000</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>1425000000</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>1417000000</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>1426000000</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>1599000000</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>960000000</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>1024000000</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>1073000000</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>909000000</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>889000000</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>996000000</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>153000000</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>151000000</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>495000000</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>122000000</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>125000000</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>162000000</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>135000000</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>149000000</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>162000000</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>167000000</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>178000000</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>176000000</v>
-      </c>
-      <c r="AI23">
-        <v>181000000</v>
       </c>
       <c r="AJ23">
         <v>181000000</v>
       </c>
       <c r="AK23">
+        <v>181000000</v>
+      </c>
+      <c r="AL23">
         <v>158000000</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>152000000</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>135000000</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>128000000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
+        <v>8581000000</v>
+      </c>
+      <c r="C24">
         <v>9333000000</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>9292000000</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>9405000000</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>9434000000</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>9382000000</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>9464000000</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>9454000000</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>9538000000</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>9451000000</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>9391000000</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>9103000000</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>8856000000</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>8781000000</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>8754000000</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>8991000000</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>8406000000</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>8580000000</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>8640000000</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>8801000000</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>8863000000</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>5930000000</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>3822000000</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>3995000000</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>1932000000</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>4030000000</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>4015000000</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>5072000000</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>4923000000</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>4993000000</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>5107000000</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>5280000000</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>5460000000</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>5396000000</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>5431000000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>5369000000</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>5444000000</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>5382000000</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>5215000000</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>5240000000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
+        <v>19656000000</v>
+      </c>
+      <c r="C25">
         <v>18798000000</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>18667000000</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>18547000000</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>18562000000</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>18736000000</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>19269000000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>19412000000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>19765000000</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>20090000000</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>19958000000</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>19244000000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>18870000000</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>18113000000</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>18095000000</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>18043000000</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>17426000000</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>17037000000</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>17273000000</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>17126000000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>18090000000</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>14662000000</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>6288000000</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>6125000000</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>6866000000</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>6254000000</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>6353000000</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>7534000000</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>7698000000</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>7911000000</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>8221000000</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>9013000000</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>10097000000</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>10358000000</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>10026000000</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>9895000000</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>10022000000</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>10081000000</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>9723000000</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>9736000000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26">
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26">
         <v>28223000000</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>28598000000</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>28351000000</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>27375000000</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>26688000000</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>26253000000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>25357000000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>24613000000</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>23977000000</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>23432000000</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>23486000000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>23565000000</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>23570000000</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>18668000000</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>18646000000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>18659000000</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>14575000000</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>14625000000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>14845000000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>15083000000</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>15716000000</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>6793000000</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>6735000000</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>6625000000</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>6853000000</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>7281000000</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>7261000000</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>7192000000</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>7155000000</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>7083000000</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>7062000000</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>6977000000</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>7123000000</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>7195000000</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>7341000000</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>7614000000</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>7577000000</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>7518000000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="W27">
-        <v>427000000</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="X27">
         <v>427000000</v>
       </c>
-      <c r="Z27">
+      <c r="Y27">
+        <v>427000000</v>
+      </c>
+      <c r="AA27">
         <v>423000000</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>428000000</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>438000000</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>437000000</v>
-      </c>
-      <c r="AD27">
-        <v>436000000</v>
       </c>
       <c r="AE27">
         <v>436000000</v>
       </c>
       <c r="AF27">
+        <v>436000000</v>
+      </c>
+      <c r="AG27">
         <v>435000000</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>434000000</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>433000000</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>435000000</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>436000000</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>438000000</v>
-      </c>
-      <c r="AL27">
-        <v>443000000</v>
       </c>
       <c r="AM27">
         <v>443000000</v>
       </c>
       <c r="AN27">
+        <v>443000000</v>
+      </c>
+      <c r="AO27">
         <v>442000000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28">
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28">
         <v>-10943000000</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>-10927000000</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>-10088000000</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>-10160000000</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>-10454000000</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>-10462000000</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>-10394000000</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>-9942000000</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>-10594000000</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>-10413000000</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>-10212000000</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>-9000000</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>25000000</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>-14000000</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>-27000000</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>-8000000</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>-103000000</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>-104000000</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>6129000000</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>6380000000</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>7072000000</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>7574000000</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>8559000000</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>9614000000</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>10720000000</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>10953000000</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>11214000000</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>11878000000</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>11289000000</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>10988000000</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>10700000000</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>10438000000</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>10257000000</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>9984000000</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>9810000000</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="W29">
-        <v>60000000</v>
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="X29">
         <v>60000000</v>
       </c>
-      <c r="Z29">
+      <c r="Y29">
+        <v>60000000</v>
+      </c>
+      <c r="AA29">
         <v>22000000</v>
-      </c>
-      <c r="AA29">
-        <v>21000000</v>
       </c>
       <c r="AB29">
         <v>21000000</v>
       </c>
       <c r="AC29">
-        <v>9000000</v>
+        <v>21000000</v>
       </c>
       <c r="AD29">
         <v>9000000</v>
       </c>
       <c r="AE29">
+        <v>9000000</v>
+      </c>
+      <c r="AF29">
         <v>8000000</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>7000000</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y30">
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z30">
         <v>16582000000</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>14144000000</v>
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="C31">
-        <v>14882000000</v>
+        <v>14367000000</v>
       </c>
       <c r="D31">
-        <v>15704000000</v>
+        <v>15086000000</v>
       </c>
       <c r="E31">
-        <v>14830000000</v>
+        <v>16447000000</v>
       </c>
       <c r="F31">
-        <v>14142000000</v>
+        <v>16746000000</v>
       </c>
       <c r="G31">
+        <v>17036000000</v>
+      </c>
+      <c r="H31">
         <v>17400000000</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>17424000000</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>18242000000</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>17249000000</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>17565000000</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>17985000000</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>34499000000</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>34436000000</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>34781000000</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>35086000000</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>35013000000</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>36563000000</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>36817000000</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>38095000000</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>38410000000</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>40148000000</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>12387000000</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>12551000000</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>14855000000</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>13237000000</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>13966000000</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>15402000000</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>16382000000</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>17505000000</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>17797000000</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>17913000000</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>18730000000</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>18284000000</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>18251000000</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>18001000000</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>17912000000</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>17993000000</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>17627000000</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>17418000000</v>
       </c>
     </row>
-    <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+    <row r="32" spans="1:41">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B32">
-        <v>14144000000</v>
+        <v>14525000000</v>
       </c>
       <c r="C32">
-        <v>14882000000</v>
+        <v>14367000000</v>
       </c>
       <c r="D32">
-        <v>15704000000</v>
+        <v>15086000000</v>
       </c>
       <c r="E32">
-        <v>14830000000</v>
+        <v>16447000000</v>
       </c>
       <c r="F32">
-        <v>14142000000</v>
+        <v>16746000000</v>
       </c>
       <c r="G32">
+        <v>17036000000</v>
+      </c>
+      <c r="H32">
         <v>17400000000</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>17424000000</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>18242000000</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>17249000000</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>17565000000</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>17985000000</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>34499000000</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>34436000000</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>34781000000</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>35086000000</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>35013000000</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>36563000000</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>36817000000</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>38095000000</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>38410000000</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>40148000000</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>12387000000</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>12551000000</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>14855000000</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>13237000000</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>13966000000</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>15402000000</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>16382000000</v>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <v>17505000000</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <v>17797000000</v>
       </c>
-      <c r="AF32">
+      <c r="AG32">
         <v>17913000000</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>18730000000</v>
       </c>
-      <c r="AH32">
+      <c r="AI32">
         <v>18284000000</v>
       </c>
-      <c r="AI32">
+      <c r="AJ32">
         <v>18251000000</v>
       </c>
-      <c r="AJ32">
+      <c r="AK32">
         <v>18001000000</v>
       </c>
-      <c r="AK32">
+      <c r="AL32">
         <v>17912000000</v>
       </c>
-      <c r="AL32">
+      <c r="AM32">
         <v>17993000000</v>
       </c>
-      <c r="AM32">
+      <c r="AN32">
         <v>17627000000</v>
       </c>
-      <c r="AN32">
+      <c r="AO32">
         <v>17418000000</v>
       </c>
     </row>
-    <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+    <row r="33" spans="1:41">
+      <c r="A33" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B33">
+        <v>34181000000</v>
+      </c>
+      <c r="C33">
         <v>33165000000</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>33753000000</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>34994000000</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>35308000000</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>35772000000</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>36669000000</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>36836000000</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>38007000000</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>37339000000</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>37523000000</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>37229000000</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>53369000000</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>52549000000</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>52876000000</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>53129000000</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>52439000000</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>53600000000</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>54090000000</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>55221000000</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>56500000000</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>54810000000</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>18675000000</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <v>18676000000</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>21721000000</v>
       </c>
-      <c r="Z33">
+      <c r="AA33">
         <v>19491000000</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <v>20319000000</v>
       </c>
-      <c r="AB33">
+      <c r="AC33">
         <v>22936000000</v>
       </c>
-      <c r="AC33">
+      <c r="AD33">
         <v>24080000000</v>
       </c>
-      <c r="AD33">
+      <c r="AE33">
         <v>25416000000</v>
       </c>
-      <c r="AE33">
+      <c r="AF33">
         <v>26018000000</v>
       </c>
-      <c r="AF33">
+      <c r="AG33">
         <v>26926000000</v>
       </c>
-      <c r="AG33">
+      <c r="AH33">
         <v>28827000000</v>
       </c>
-      <c r="AH33">
+      <c r="AI33">
         <v>28642000000</v>
       </c>
-      <c r="AI33">
+      <c r="AJ33">
         <v>28277000000</v>
       </c>
-      <c r="AJ33">
+      <c r="AK33">
         <v>27896000000</v>
       </c>
-      <c r="AK33">
+      <c r="AL33">
         <v>27934000000</v>
       </c>
-      <c r="AL33">
+      <c r="AM33">
         <v>28074000000</v>
       </c>
-      <c r="AM33">
+      <c r="AN33">
         <v>27350000000</v>
       </c>
-      <c r="AN33">
+      <c r="AO33">
         <v>27154000000</v>
       </c>
     </row>
-    <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+    <row r="34" spans="1:41">
+      <c r="A34" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B34">
+        <v>1006000000</v>
+      </c>
+      <c r="C34">
         <v>1009000000</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>1019000000</v>
-      </c>
-      <c r="D34">
-        <v>1026000000</v>
       </c>
       <c r="E34">
         <v>1026000000</v>
       </c>
       <c r="F34">
+        <v>1026000000</v>
+      </c>
+      <c r="G34">
         <v>1038000000</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>1042000000</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>1041000000</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>1035000000</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>1034000000</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>1032000000</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>1031000000</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>1027000000</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>1026000000</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>1038000000</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>1037000000</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>1035000000</v>
-      </c>
-      <c r="R34">
-        <v>1100000000</v>
       </c>
       <c r="S34">
         <v>1100000000</v>
       </c>
       <c r="T34">
+        <v>1100000000</v>
+      </c>
+      <c r="U34">
         <v>1112000000</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>1129000000</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>1145000000</v>
-      </c>
-      <c r="W34">
-        <v>426000000</v>
       </c>
       <c r="X34">
         <v>426000000</v>
       </c>
-      <c r="Z34">
+      <c r="Y34">
+        <v>426000000</v>
+      </c>
+      <c r="AA34">
         <v>423000000</v>
       </c>
-      <c r="AA34">
+      <c r="AB34">
         <v>427901000</v>
       </c>
-      <c r="AB34">
+      <c r="AC34">
         <v>437913000</v>
       </c>
-      <c r="AC34">
+      <c r="AD34">
         <v>437000000</v>
       </c>
-      <c r="AD34">
+      <c r="AE34">
         <v>436087000</v>
       </c>
-      <c r="AE34">
+      <c r="AF34">
         <v>435882000</v>
       </c>
-      <c r="AF34">
+      <c r="AG34">
         <v>434675000</v>
       </c>
-      <c r="AG34">
+      <c r="AH34">
         <v>434000000</v>
       </c>
-      <c r="AH34">
+      <c r="AI34">
         <v>432599000</v>
       </c>
-      <c r="AI34">
+      <c r="AJ34">
         <v>435042000</v>
       </c>
-      <c r="AJ34">
+      <c r="AK34">
         <v>435977000</v>
       </c>
-      <c r="AK34">
+      <c r="AL34">
         <v>438000000</v>
       </c>
-      <c r="AL34">
+      <c r="AM34">
         <v>443226000</v>
       </c>
-      <c r="AM34">
+      <c r="AN34">
         <v>443043000</v>
       </c>
-      <c r="AN34">
+      <c r="AO34">
         <v>441827000</v>
       </c>
     </row>
-    <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+    <row r="35" spans="1:41">
+      <c r="A35" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B35">
+        <v>4415000000</v>
+      </c>
+      <c r="C35">
         <v>4952000000</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>5296000000</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>6340000000</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>6656000000</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>6870000000</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>7146000000</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>7227000000</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>7868000000</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>6949000000</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>7281000000</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>7531000000</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>8428000000</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>8351000000</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>8566000000</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <v>8661000000</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <v>8577000000</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <v>9942000000</v>
       </c>
-      <c r="S35">
+      <c r="T35">
         <v>10086000000</v>
       </c>
-      <c r="T35">
+      <c r="U35">
         <v>11457000000</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>12125000000</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>12927000000</v>
       </c>
-      <c r="W35">
+      <c r="X35">
         <v>8017000000</v>
       </c>
-      <c r="X35">
+      <c r="Y35">
         <v>8167000000</v>
       </c>
-      <c r="Y35">
+      <c r="Z35">
         <v>5400000000</v>
       </c>
-      <c r="Z35">
+      <c r="AA35">
         <v>8614000000</v>
       </c>
-      <c r="AA35">
+      <c r="AB35">
         <v>9294000000</v>
       </c>
-      <c r="AB35">
+      <c r="AC35">
         <v>8779000000</v>
       </c>
-      <c r="AC35">
+      <c r="AD35">
         <v>9729000000</v>
       </c>
-      <c r="AD35">
+      <c r="AE35">
         <v>10701000000</v>
       </c>
-      <c r="AE35">
+      <c r="AF35">
         <v>10957000000</v>
       </c>
-      <c r="AF35">
+      <c r="AG35">
         <v>11058000000</v>
       </c>
-      <c r="AG35">
+      <c r="AH35">
         <v>11837000000</v>
       </c>
-      <c r="AH35">
+      <c r="AI35">
         <v>11353000000</v>
       </c>
-      <c r="AI35">
+      <c r="AJ35">
         <v>11416000000</v>
       </c>
-      <c r="AJ35">
+      <c r="AK35">
         <v>11142000000</v>
       </c>
-      <c r="AK35">
+      <c r="AL35">
         <v>11063000000</v>
       </c>
-      <c r="AL35">
+      <c r="AM35">
         <v>11111000000</v>
       </c>
-      <c r="AM35">
+      <c r="AN35">
         <v>10739000000</v>
       </c>
-      <c r="AN35">
+      <c r="AO35">
         <v>10499000000</v>
       </c>
     </row>
-    <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
+    <row r="36" spans="1:41">
+      <c r="A36" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B36">
-        <v>2955000000</v>
+        <v>4169000000</v>
       </c>
       <c r="C36">
-        <v>2766000000</v>
+        <v>3804000000</v>
       </c>
       <c r="D36">
-        <v>2444000000</v>
+        <v>3731000000</v>
       </c>
       <c r="E36">
-        <v>2653000000</v>
+        <v>3494000000</v>
       </c>
       <c r="F36">
-        <v>2435000000</v>
+        <v>2874000000</v>
       </c>
       <c r="G36">
+        <v>2838000000</v>
+      </c>
+      <c r="H36">
         <v>2860000000</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>3238000000</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>3501000000</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>3628000000</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>3568000000</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>3485000000</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>3373000000</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <v>4199000000</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <v>4010000000</v>
       </c>
-      <c r="P36">
+      <c r="Q36">
         <v>4103000000</v>
       </c>
-      <c r="Q36">
+      <c r="R36">
         <v>3504000000</v>
       </c>
-      <c r="R36">
+      <c r="S36">
         <v>2528000000</v>
       </c>
-      <c r="S36">
+      <c r="T36">
         <v>2507000000</v>
       </c>
-      <c r="T36">
+      <c r="U36">
         <v>1841000000</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <v>1319000000</v>
       </c>
-      <c r="V36">
+      <c r="W36">
         <v>128000000</v>
       </c>
-      <c r="W36">
+      <c r="X36">
         <v>-1124000000</v>
       </c>
-      <c r="X36">
+      <c r="Y36">
         <v>-1204000000</v>
       </c>
-      <c r="Y36">
+      <c r="Z36">
         <v>-704000000</v>
       </c>
-      <c r="Z36">
+      <c r="AA36">
         <v>-714000000</v>
       </c>
-      <c r="AA36">
+      <c r="AB36">
         <v>-884000000</v>
       </c>
-      <c r="AB36">
+      <c r="AC36">
         <v>1855000000</v>
       </c>
-      <c r="AC36">
+      <c r="AD36">
         <v>1717000000</v>
       </c>
-      <c r="AD36">
+      <c r="AE36">
         <v>2009000000</v>
       </c>
-      <c r="AE36">
+      <c r="AF36">
         <v>2070000000</v>
       </c>
-      <c r="AF36">
+      <c r="AG36">
         <v>2449000000</v>
       </c>
-      <c r="AG36">
+      <c r="AH36">
         <v>2393000000</v>
       </c>
-      <c r="AH36">
+      <c r="AI36">
         <v>3204000000</v>
       </c>
-      <c r="AI36">
+      <c r="AJ36">
         <v>3394000000</v>
       </c>
-      <c r="AJ36">
+      <c r="AK36">
         <v>3303000000</v>
       </c>
-      <c r="AK36">
+      <c r="AL36">
         <v>2982000000</v>
       </c>
-      <c r="AL36">
+      <c r="AM36">
         <v>3207000000</v>
       </c>
-      <c r="AM36">
+      <c r="AN36">
         <v>3786000000</v>
       </c>
-      <c r="AN36">
+      <c r="AO36">
         <v>3991000000</v>
       </c>
     </row>
-    <row r="37" spans="1:40">
-      <c r="A37" t="s">
-        <v>36</v>
+    <row r="37" spans="1:41">
+      <c r="A37" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="B37">
+        <v>6657000000</v>
+      </c>
+      <c r="C37">
         <v>6655000000</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>6659000000</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>6685000000</v>
       </c>
-      <c r="E37">
-        <v>7547000000</v>
-      </c>
       <c r="F37">
+        <v>6727000000</v>
+      </c>
+      <c r="G37">
         <v>6764000000</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>6773000000</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>7620000000</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>7633000000</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>7689000000</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <v>7700000000</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>6495000000</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <v>6622000000</v>
       </c>
-      <c r="N37">
+      <c r="O37">
         <v>7007000000</v>
       </c>
-      <c r="O37">
+      <c r="P37">
         <v>7148000000</v>
       </c>
-      <c r="P37">
+      <c r="Q37">
         <v>7176000000</v>
       </c>
-      <c r="Q37">
+      <c r="R37">
         <v>7227000000</v>
       </c>
-      <c r="R37">
+      <c r="S37">
         <v>7293000000</v>
       </c>
-      <c r="S37">
+      <c r="T37">
         <v>7386000000</v>
       </c>
-      <c r="T37">
+      <c r="U37">
         <v>7472000000</v>
       </c>
-      <c r="U37">
+      <c r="V37">
         <v>8349000000</v>
       </c>
-      <c r="V37">
+      <c r="W37">
         <v>4905000000</v>
       </c>
-      <c r="W37">
+      <c r="X37">
         <v>3009000000</v>
       </c>
-      <c r="X37">
+      <c r="Y37">
         <v>3018000000</v>
       </c>
-      <c r="Y37">
+      <c r="Z37">
         <v>277000000</v>
       </c>
-      <c r="Z37">
+      <c r="AA37">
         <v>3022000000</v>
       </c>
-      <c r="AA37">
+      <c r="AB37">
         <v>3026000000</v>
       </c>
-      <c r="AB37">
+      <c r="AC37">
         <v>4047000000</v>
       </c>
-      <c r="AC37">
+      <c r="AD37">
         <v>4041000000</v>
       </c>
-      <c r="AD37">
+      <c r="AE37">
         <v>4052000000</v>
       </c>
-      <c r="AE37">
+      <c r="AF37">
         <v>4043000000</v>
       </c>
-      <c r="AF37">
+      <c r="AG37">
         <v>4055000000</v>
       </c>
-      <c r="AG37">
+      <c r="AH37">
         <v>4133000000</v>
       </c>
-      <c r="AH37">
+      <c r="AI37">
         <v>4413000000</v>
       </c>
-      <c r="AI37">
+      <c r="AJ37">
         <v>4557000000</v>
       </c>
-      <c r="AJ37">
+      <c r="AK37">
         <v>4503000000</v>
       </c>
-      <c r="AK37">
+      <c r="AL37">
         <v>4381000000</v>
       </c>
-      <c r="AL37">
+      <c r="AM37">
         <v>4575000000</v>
       </c>
-      <c r="AM37">
+      <c r="AN37">
         <v>4909000000</v>
       </c>
-      <c r="AN37">
+      <c r="AO37">
         <v>5092000000</v>
       </c>
     </row>
